--- a/xlsx/crawling_data.xlsx
+++ b/xlsx/crawling_data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,16 +424,13 @@
         <v/>
       </c>
       <c r="B2" t="str">
-        <v>공과대학</v>
+        <v>건축학부</v>
       </c>
       <c r="C2" t="str">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D2" t="str">
-        <v>19</v>
-      </c>
-      <c r="E2" t="str">
-        <v>4.75 : 1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -441,16 +438,16 @@
         <v/>
       </c>
       <c r="B3" t="str">
-        <v>신소재ㆍ화공시스템공학부</v>
+        <v>건축공학부</v>
       </c>
       <c r="C3" t="str">
         <v/>
       </c>
       <c r="D3" t="str">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E3" t="str">
-        <v>5.50 : 1</v>
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -458,16 +455,16 @@
         <v/>
       </c>
       <c r="B4" t="str">
-        <v>컴퓨터공학과</v>
+        <v>건설환경공학과</v>
       </c>
       <c r="C4" t="str">
         <v/>
       </c>
       <c r="D4" t="str">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E4" t="str">
-        <v>5.67 : 1</v>
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -475,16 +472,16 @@
         <v/>
       </c>
       <c r="B5" t="str">
-        <v>산업ㆍ데이터공학과</v>
+        <v>도시공학과</v>
       </c>
       <c r="C5" t="str">
         <v/>
       </c>
       <c r="D5" t="str">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E5" t="str">
-        <v>6.00 : 1</v>
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -492,16 +489,16 @@
         <v/>
       </c>
       <c r="B6" t="str">
-        <v>기계ㆍ시스템디자인공학과</v>
+        <v>자원환경공학과</v>
       </c>
       <c r="C6" t="str">
         <v/>
       </c>
       <c r="D6" t="str">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E6" t="str">
-        <v>4.67 : 1</v>
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -509,16 +506,16 @@
         <v/>
       </c>
       <c r="B7" t="str">
-        <v>건설환경공학과</v>
+        <v>융합전자공학부</v>
       </c>
       <c r="C7" t="str">
         <v/>
       </c>
       <c r="D7" t="str">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E7" t="str">
-        <v>5.00 : 1</v>
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -526,16 +523,16 @@
         <v/>
       </c>
       <c r="B8" t="str">
-        <v>건축학부 건축학전공(5년제)</v>
+        <v>컴퓨터소프트웨어학부</v>
       </c>
       <c r="C8" t="str">
         <v/>
       </c>
       <c r="D8" t="str">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E8" t="str">
-        <v>7.00 : 1</v>
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -543,7 +540,7 @@
         <v/>
       </c>
       <c r="B9" t="str">
-        <v>건축학부 실내건축학전공</v>
+        <v>전기공학전공</v>
       </c>
       <c r="C9" t="str">
         <v/>
@@ -552,7 +549,7 @@
         <v>6</v>
       </c>
       <c r="E9" t="str">
-        <v>6.00 : 1</v>
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -560,16 +557,16 @@
         <v/>
       </c>
       <c r="B10" t="str">
-        <v>도시공학과</v>
+        <v>바이오메디컬공학전공</v>
       </c>
       <c r="C10" t="str">
         <v/>
       </c>
       <c r="D10" t="str">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E10" t="str">
-        <v>4.00 : 1</v>
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -577,16 +574,16 @@
         <v/>
       </c>
       <c r="B11" t="str">
-        <v>수학교육과</v>
+        <v>신소재공학부</v>
       </c>
       <c r="C11" t="str">
         <v/>
       </c>
       <c r="D11" t="str">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E11" t="str">
-        <v>4.00 : 1</v>
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -594,16 +591,16 @@
         <v/>
       </c>
       <c r="B12" t="str">
-        <v>국어교육과</v>
+        <v>화학공학과</v>
       </c>
       <c r="C12" t="str">
         <v/>
       </c>
       <c r="D12" t="str">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E12" t="str">
-        <v>6.00 : 1</v>
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -611,16 +608,16 @@
         <v/>
       </c>
       <c r="B13" t="str">
-        <v>영어교육과</v>
+        <v>생명공학과</v>
       </c>
       <c r="C13" t="str">
         <v/>
       </c>
       <c r="D13" t="str">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E13" t="str">
-        <v>6.00 : 1</v>
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -628,16 +625,16 @@
         <v/>
       </c>
       <c r="B14" t="str">
-        <v>역사교육과</v>
+        <v>유기나노공학과</v>
       </c>
       <c r="C14" t="str">
         <v/>
       </c>
       <c r="D14" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" t="str">
-        <v>4.00 : 1</v>
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -645,16 +642,16 @@
         <v/>
       </c>
       <c r="B15" t="str">
-        <v>교육학과</v>
+        <v>에너지공학과</v>
       </c>
       <c r="C15" t="str">
         <v/>
       </c>
       <c r="D15" t="str">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" t="str">
-        <v>6.00 : 1</v>
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -662,16 +659,16 @@
         <v/>
       </c>
       <c r="B16" t="str">
-        <v>경영학부</v>
+        <v>기계공학부</v>
       </c>
       <c r="C16" t="str">
         <v/>
       </c>
       <c r="D16" t="str">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E16" t="str">
-        <v>7.71 : 1</v>
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -679,16 +676,16 @@
         <v/>
       </c>
       <c r="B17" t="str">
-        <v>영어영문학과</v>
+        <v>원자력공학과</v>
       </c>
       <c r="C17" t="str">
         <v/>
       </c>
       <c r="D17" t="str">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E17" t="str">
-        <v>5.00 : 1</v>
+        <v/>
       </c>
     </row>
     <row r="18">
@@ -696,16 +693,16 @@
         <v/>
       </c>
       <c r="B18" t="str">
-        <v>독어독문학과</v>
+        <v>산업공학과</v>
       </c>
       <c r="C18" t="str">
         <v/>
       </c>
       <c r="D18" t="str">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E18" t="str">
-        <v>4.00 : 1</v>
+        <v/>
       </c>
     </row>
     <row r="19">
@@ -713,16 +710,16 @@
         <v/>
       </c>
       <c r="B19" t="str">
-        <v>불어불문학과</v>
+        <v>미래자동차공학과</v>
       </c>
       <c r="C19" t="str">
         <v/>
       </c>
       <c r="D19" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E19" t="str">
-        <v>4.00 : 1</v>
+        <v/>
       </c>
     </row>
     <row r="20">
@@ -730,16 +727,16 @@
         <v/>
       </c>
       <c r="B20" t="str">
-        <v>국어국문학과</v>
+        <v>데이터사이언스학부</v>
       </c>
       <c r="C20" t="str">
         <v/>
       </c>
       <c r="D20" t="str">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E20" t="str">
-        <v>3.00 : 1</v>
+        <v/>
       </c>
     </row>
     <row r="21">
@@ -747,16 +744,16 @@
         <v/>
       </c>
       <c r="B21" t="str">
-        <v>법학부</v>
+        <v>수학과</v>
       </c>
       <c r="C21" t="str">
         <v/>
       </c>
       <c r="D21" t="str">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E21" t="str">
-        <v>6.00 : 1</v>
+        <v/>
       </c>
     </row>
     <row r="22">
@@ -764,16 +761,16 @@
         <v/>
       </c>
       <c r="B22" t="str">
-        <v>경제학부</v>
+        <v>물리학과</v>
       </c>
       <c r="C22" t="str">
         <v/>
       </c>
       <c r="D22" t="str">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E22" t="str">
-        <v>7.00 : 1</v>
+        <v/>
       </c>
     </row>
     <row r="23">
@@ -781,16 +778,16 @@
         <v/>
       </c>
       <c r="B23" t="str">
-        <v>예술학과</v>
+        <v>화학과</v>
       </c>
       <c r="C23" t="str">
         <v/>
       </c>
       <c r="D23" t="str">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E23" t="str">
-        <v>4.00 : 1</v>
+        <v/>
       </c>
     </row>
     <row r="24">
@@ -798,16 +795,16 @@
         <v/>
       </c>
       <c r="B24" t="str">
-        <v>동양화과</v>
+        <v>생명과학과</v>
       </c>
       <c r="C24" t="str">
         <v/>
       </c>
       <c r="D24" t="str">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E24" t="str">
-        <v>1.00 : 1</v>
+        <v/>
       </c>
     </row>
     <row r="25">
@@ -815,16 +812,16 @@
         <v/>
       </c>
       <c r="B25" t="str">
-        <v>회화과</v>
+        <v>의류학과</v>
       </c>
       <c r="C25" t="str">
         <v/>
       </c>
       <c r="D25" t="str">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E25" t="str">
-        <v>3.00 : 1</v>
+        <v/>
       </c>
     </row>
     <row r="26">
@@ -832,16 +829,16 @@
         <v/>
       </c>
       <c r="B26" t="str">
-        <v>판화과</v>
+        <v>식품영양학과</v>
       </c>
       <c r="C26" t="str">
         <v/>
       </c>
       <c r="D26" t="str">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E26" t="str">
-        <v>3.00 : 1</v>
+        <v/>
       </c>
     </row>
     <row r="27">
@@ -849,16 +846,16 @@
         <v/>
       </c>
       <c r="B27" t="str">
-        <v>조소과</v>
+        <v>실내건축디자인학과</v>
       </c>
       <c r="C27" t="str">
         <v/>
       </c>
       <c r="D27" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E27" t="str">
-        <v>2.00 : 1</v>
+        <v/>
       </c>
     </row>
     <row r="28">
@@ -866,16 +863,16 @@
         <v/>
       </c>
       <c r="B28" t="str">
-        <v>디자인학부</v>
+        <v>간호학과</v>
       </c>
       <c r="C28" t="str">
         <v/>
       </c>
       <c r="D28" t="str">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E28" t="str">
-        <v>6.67 : 1</v>
+        <v/>
       </c>
     </row>
     <row r="29">
@@ -883,16 +880,13 @@
         <v/>
       </c>
       <c r="B29" t="str">
-        <v>금속조형디자인과</v>
+        <v>정보시스템학과</v>
       </c>
       <c r="C29" t="str">
-        <v/>
+        <v>24</v>
       </c>
       <c r="D29" t="str">
-        <v>5</v>
-      </c>
-      <c r="E29" t="str">
-        <v>5.00 : 1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
@@ -900,16 +894,16 @@
         <v/>
       </c>
       <c r="B30" t="str">
-        <v>도예ㆍ유리과</v>
+        <v>국어국문학과</v>
       </c>
       <c r="C30" t="str">
         <v/>
       </c>
       <c r="D30" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E30" t="str">
-        <v>4.00 : 1</v>
+        <v/>
       </c>
     </row>
     <row r="31">
@@ -917,16 +911,16 @@
         <v/>
       </c>
       <c r="B31" t="str">
-        <v>목조형가구학과</v>
+        <v>중어중문학과</v>
       </c>
       <c r="C31" t="str">
         <v/>
       </c>
       <c r="D31" t="str">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E31" t="str">
-        <v>2.00 : 1</v>
+        <v/>
       </c>
     </row>
     <row r="32">
@@ -934,16 +928,16 @@
         <v/>
       </c>
       <c r="B32" t="str">
-        <v>섬유미술ㆍ패션디자인과</v>
+        <v>영어영문학과</v>
       </c>
       <c r="C32" t="str">
         <v/>
       </c>
       <c r="D32" t="str">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E32" t="str">
-        <v>7.00 : 1</v>
+        <v/>
       </c>
     </row>
     <row r="33">
@@ -951,16 +945,16 @@
         <v/>
       </c>
       <c r="B33" t="str">
-        <v>과학기술대학</v>
+        <v>독어독문학과</v>
       </c>
       <c r="C33" t="str">
-        <v>8</v>
+        <v/>
       </c>
       <c r="D33" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E33" t="str">
-        <v>0.25 : 1</v>
+        <v/>
       </c>
     </row>
     <row r="34">
@@ -968,13 +962,13 @@
         <v/>
       </c>
       <c r="B34" t="str">
-        <v>소프트웨어융합학과</v>
+        <v>사학과</v>
       </c>
       <c r="C34" t="str">
         <v/>
       </c>
       <c r="D34" t="str">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E34" t="str">
         <v/>
@@ -985,13 +979,13 @@
         <v/>
       </c>
       <c r="B35" t="str">
-        <v>나노신소재학과</v>
+        <v>철학과</v>
       </c>
       <c r="C35" t="str">
         <v/>
       </c>
       <c r="D35" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E35" t="str">
         <v/>
@@ -1002,13 +996,13 @@
         <v/>
       </c>
       <c r="B36" t="str">
-        <v>건축공학부</v>
+        <v>정치외교학과</v>
       </c>
       <c r="C36" t="str">
         <v/>
       </c>
       <c r="D36" t="str">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E36" t="str">
         <v/>
@@ -1019,13 +1013,13 @@
         <v/>
       </c>
       <c r="B37" t="str">
-        <v>기계정보공학과</v>
+        <v>사회학과</v>
       </c>
       <c r="C37" t="str">
         <v/>
       </c>
       <c r="D37" t="str">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E37" t="str">
         <v/>
@@ -1036,13 +1030,13 @@
         <v/>
       </c>
       <c r="B38" t="str">
-        <v>조선해양공학과</v>
+        <v>미디어커뮤니케이션학과</v>
       </c>
       <c r="C38" t="str">
         <v/>
       </c>
       <c r="D38" t="str">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E38" t="str">
         <v/>
@@ -1053,13 +1047,13 @@
         <v/>
       </c>
       <c r="B39" t="str">
-        <v>바이오화학공학과</v>
+        <v>관광학부</v>
       </c>
       <c r="C39" t="str">
         <v/>
       </c>
       <c r="D39" t="str">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E39" t="str">
         <v/>
@@ -1070,16 +1064,16 @@
         <v/>
       </c>
       <c r="B40" t="str">
-        <v>게임학부 게임소프트웨어전공(공학계)</v>
+        <v>정책학과</v>
       </c>
       <c r="C40" t="str">
         <v/>
       </c>
       <c r="D40" t="str">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E40" t="str">
-        <v>0.00 : 1</v>
+        <v/>
       </c>
     </row>
     <row r="41">
@@ -1087,16 +1081,16 @@
         <v/>
       </c>
       <c r="B41" t="str">
-        <v>상경학부</v>
+        <v>행정학과</v>
       </c>
       <c r="C41" t="str">
         <v/>
       </c>
       <c r="D41" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E41" t="str">
-        <v>0.00 : 1</v>
+        <v/>
       </c>
     </row>
     <row r="42">
@@ -1104,16 +1098,16 @@
         <v/>
       </c>
       <c r="B42" t="str">
-        <v>광고홍보학부</v>
+        <v>경제금융학부</v>
       </c>
       <c r="C42" t="str">
         <v/>
       </c>
       <c r="D42" t="str">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E42" t="str">
-        <v>0.67 : 1</v>
+        <v/>
       </c>
     </row>
     <row r="43">
@@ -1121,16 +1115,16 @@
         <v/>
       </c>
       <c r="B43" t="str">
-        <v>디자인컨버전스학부</v>
+        <v>경영학부</v>
       </c>
       <c r="C43" t="str">
         <v/>
       </c>
       <c r="D43" t="str">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E43" t="str">
-        <v>2.50 : 1</v>
+        <v/>
       </c>
     </row>
     <row r="44">
@@ -1138,16 +1132,16 @@
         <v/>
       </c>
       <c r="B44" t="str">
-        <v>영상애니메이션학부</v>
+        <v>파이낸스경영학과</v>
       </c>
       <c r="C44" t="str">
         <v/>
       </c>
       <c r="D44" t="str">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E44" t="str">
-        <v>2.50 : 1</v>
+        <v/>
       </c>
     </row>
     <row r="45">
@@ -1155,21 +1149,52 @@
         <v/>
       </c>
       <c r="B45" t="str">
-        <v>게임학부 게임그래픽디자인전공(미술계)</v>
+        <v>스포츠매니지먼트전공</v>
       </c>
       <c r="C45" t="str">
         <v/>
       </c>
       <c r="D45" t="str">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E45" t="str">
-        <v>2.00 : 1</v>
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v/>
+      </c>
+      <c r="B46" t="str">
+        <v>연극영화학과(영화전공)</v>
+      </c>
+      <c r="C46" t="str">
+        <v/>
+      </c>
+      <c r="D46" t="str">
+        <v>9</v>
+      </c>
+      <c r="E46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v/>
+      </c>
+      <c r="B47" t="str">
+        <v>국제학전공</v>
+      </c>
+      <c r="C47" t="str">
+        <v>3</v>
+      </c>
+      <c r="D47" t="str">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E45"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E47"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/xlsx/crawling_data.xlsx
+++ b/xlsx/crawling_data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E156"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,13 +424,16 @@
         <v/>
       </c>
       <c r="B2" t="str">
-        <v>건축학부</v>
+        <v>한국어문학부</v>
       </c>
       <c r="C2" t="str">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D2" t="str">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="E2" t="str">
+        <v>4.03: 1</v>
       </c>
     </row>
     <row r="3">
@@ -438,13 +441,13 @@
         <v/>
       </c>
       <c r="B3" t="str">
-        <v>건축공학부</v>
+        <v>역사문화학과</v>
       </c>
       <c r="C3" t="str">
         <v/>
       </c>
       <c r="D3" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="str">
         <v/>
@@ -455,13 +458,13 @@
         <v/>
       </c>
       <c r="B4" t="str">
-        <v>건설환경공학과</v>
+        <v>프랑스언어·문화학과</v>
       </c>
       <c r="C4" t="str">
         <v/>
       </c>
       <c r="D4" t="str">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E4" t="str">
         <v/>
@@ -472,13 +475,13 @@
         <v/>
       </c>
       <c r="B5" t="str">
-        <v>도시공학과</v>
+        <v>중어중문학부</v>
       </c>
       <c r="C5" t="str">
         <v/>
       </c>
       <c r="D5" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" t="str">
         <v/>
@@ -489,13 +492,13 @@
         <v/>
       </c>
       <c r="B6" t="str">
-        <v>자원환경공학과</v>
+        <v>독일언어·문화학과</v>
       </c>
       <c r="C6" t="str">
         <v/>
       </c>
       <c r="D6" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" t="str">
         <v/>
@@ -506,13 +509,13 @@
         <v/>
       </c>
       <c r="B7" t="str">
-        <v>융합전자공학부</v>
+        <v>일본학과</v>
       </c>
       <c r="C7" t="str">
         <v/>
       </c>
       <c r="D7" t="str">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E7" t="str">
         <v/>
@@ -523,13 +526,13 @@
         <v/>
       </c>
       <c r="B8" t="str">
-        <v>컴퓨터소프트웨어학부</v>
+        <v>문헌정보학과</v>
       </c>
       <c r="C8" t="str">
         <v/>
       </c>
       <c r="D8" t="str">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E8" t="str">
         <v/>
@@ -540,13 +543,13 @@
         <v/>
       </c>
       <c r="B9" t="str">
-        <v>전기공학전공</v>
+        <v>문화관광학전공</v>
       </c>
       <c r="C9" t="str">
         <v/>
       </c>
       <c r="D9" t="str">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9" t="str">
         <v/>
@@ -557,13 +560,13 @@
         <v/>
       </c>
       <c r="B10" t="str">
-        <v>바이오메디컬공학전공</v>
+        <v>르꼬르동블루외식경영전공</v>
       </c>
       <c r="C10" t="str">
         <v/>
       </c>
       <c r="D10" t="str">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E10" t="str">
         <v/>
@@ -574,13 +577,13 @@
         <v/>
       </c>
       <c r="B11" t="str">
-        <v>신소재공학부</v>
+        <v>교육학부</v>
       </c>
       <c r="C11" t="str">
         <v/>
       </c>
       <c r="D11" t="str">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E11" t="str">
         <v/>
@@ -591,13 +594,13 @@
         <v/>
       </c>
       <c r="B12" t="str">
-        <v>화학공학과</v>
+        <v>가족자원경영학과</v>
       </c>
       <c r="C12" t="str">
         <v/>
       </c>
       <c r="D12" t="str">
-        <v>19</v>
+        <v/>
       </c>
       <c r="E12" t="str">
         <v/>
@@ -608,13 +611,13 @@
         <v/>
       </c>
       <c r="B13" t="str">
-        <v>생명공학과</v>
+        <v>아동복지학부</v>
       </c>
       <c r="C13" t="str">
         <v/>
       </c>
       <c r="D13" t="str">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" t="str">
         <v/>
@@ -625,13 +628,13 @@
         <v/>
       </c>
       <c r="B14" t="str">
-        <v>유기나노공학과</v>
+        <v>정치외교학과</v>
       </c>
       <c r="C14" t="str">
         <v/>
       </c>
       <c r="D14" t="str">
-        <v>5</v>
+        <v/>
       </c>
       <c r="E14" t="str">
         <v/>
@@ -642,13 +645,13 @@
         <v/>
       </c>
       <c r="B15" t="str">
-        <v>에너지공학과</v>
+        <v>행정학과</v>
       </c>
       <c r="C15" t="str">
         <v/>
       </c>
       <c r="D15" t="str">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E15" t="str">
         <v/>
@@ -659,13 +662,13 @@
         <v/>
       </c>
       <c r="B16" t="str">
-        <v>기계공학부</v>
+        <v>홍보광고학과</v>
       </c>
       <c r="C16" t="str">
         <v/>
       </c>
       <c r="D16" t="str">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E16" t="str">
         <v/>
@@ -676,13 +679,13 @@
         <v/>
       </c>
       <c r="B17" t="str">
-        <v>원자력공학과</v>
+        <v>소비자경제학과</v>
       </c>
       <c r="C17" t="str">
         <v/>
       </c>
       <c r="D17" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" t="str">
         <v/>
@@ -693,7 +696,7 @@
         <v/>
       </c>
       <c r="B18" t="str">
-        <v>산업공학과</v>
+        <v>사회심리학과</v>
       </c>
       <c r="C18" t="str">
         <v/>
@@ -710,13 +713,13 @@
         <v/>
       </c>
       <c r="B19" t="str">
-        <v>미래자동차공학과</v>
+        <v>법학부</v>
       </c>
       <c r="C19" t="str">
         <v/>
       </c>
       <c r="D19" t="str">
-        <v>6</v>
+        <v/>
       </c>
       <c r="E19" t="str">
         <v/>
@@ -727,13 +730,13 @@
         <v/>
       </c>
       <c r="B20" t="str">
-        <v>데이터사이언스학부</v>
+        <v>경제학부</v>
       </c>
       <c r="C20" t="str">
         <v/>
       </c>
       <c r="D20" t="str">
-        <v>12</v>
+        <v/>
       </c>
       <c r="E20" t="str">
         <v/>
@@ -744,13 +747,13 @@
         <v/>
       </c>
       <c r="B21" t="str">
-        <v>수학과</v>
+        <v>경영학부</v>
       </c>
       <c r="C21" t="str">
         <v/>
       </c>
       <c r="D21" t="str">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E21" t="str">
         <v/>
@@ -761,13 +764,13 @@
         <v/>
       </c>
       <c r="B22" t="str">
-        <v>물리학과</v>
+        <v>글로벌협력전공</v>
       </c>
       <c r="C22" t="str">
         <v/>
       </c>
       <c r="D22" t="str">
-        <v>10</v>
+        <v/>
       </c>
       <c r="E22" t="str">
         <v/>
@@ -778,13 +781,13 @@
         <v/>
       </c>
       <c r="B23" t="str">
-        <v>화학과</v>
+        <v>앙트러프러너십전공</v>
       </c>
       <c r="C23" t="str">
         <v/>
       </c>
       <c r="D23" t="str">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E23" t="str">
         <v/>
@@ -795,13 +798,13 @@
         <v/>
       </c>
       <c r="B24" t="str">
-        <v>생명과학과</v>
+        <v>영어영문학전공</v>
       </c>
       <c r="C24" t="str">
         <v/>
       </c>
       <c r="D24" t="str">
-        <v>22</v>
+        <v/>
       </c>
       <c r="E24" t="str">
         <v/>
@@ -812,13 +815,13 @@
         <v/>
       </c>
       <c r="B25" t="str">
-        <v>의류학과</v>
+        <v>테슬(TESL)전공</v>
       </c>
       <c r="C25" t="str">
         <v/>
       </c>
       <c r="D25" t="str">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E25" t="str">
         <v/>
@@ -829,13 +832,13 @@
         <v/>
       </c>
       <c r="B26" t="str">
-        <v>식품영양학과</v>
+        <v>미디어학부</v>
       </c>
       <c r="C26" t="str">
         <v/>
       </c>
       <c r="D26" t="str">
-        <v>7</v>
+        <v/>
       </c>
       <c r="E26" t="str">
         <v/>
@@ -846,16 +849,16 @@
         <v/>
       </c>
       <c r="B27" t="str">
-        <v>실내건축디자인학과</v>
+        <v>화학과</v>
       </c>
       <c r="C27" t="str">
-        <v/>
+        <v>6</v>
       </c>
       <c r="D27" t="str">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E27" t="str">
-        <v/>
+        <v>2.17: 1</v>
       </c>
     </row>
     <row r="28">
@@ -863,13 +866,13 @@
         <v/>
       </c>
       <c r="B28" t="str">
-        <v>간호학과</v>
+        <v>생명시스템학부</v>
       </c>
       <c r="C28" t="str">
         <v/>
       </c>
       <c r="D28" t="str">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E28" t="str">
         <v/>
@@ -880,13 +883,16 @@
         <v/>
       </c>
       <c r="B29" t="str">
-        <v>정보시스템학과</v>
+        <v>수학과</v>
       </c>
       <c r="C29" t="str">
-        <v>24</v>
+        <v/>
       </c>
       <c r="D29" t="str">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="E29" t="str">
+        <v/>
       </c>
     </row>
     <row r="30">
@@ -894,13 +900,13 @@
         <v/>
       </c>
       <c r="B30" t="str">
-        <v>국어국문학과</v>
+        <v>통계학과</v>
       </c>
       <c r="C30" t="str">
         <v/>
       </c>
       <c r="D30" t="str">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E30" t="str">
         <v/>
@@ -911,13 +917,13 @@
         <v/>
       </c>
       <c r="B31" t="str">
-        <v>중어중문학과</v>
+        <v>화공생명공학부</v>
       </c>
       <c r="C31" t="str">
         <v/>
       </c>
       <c r="D31" t="str">
-        <v>6</v>
+        <v/>
       </c>
       <c r="E31" t="str">
         <v/>
@@ -928,13 +934,13 @@
         <v/>
       </c>
       <c r="B32" t="str">
-        <v>영어영문학과</v>
+        <v>인공지능공학부</v>
       </c>
       <c r="C32" t="str">
         <v/>
       </c>
       <c r="D32" t="str">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E32" t="str">
         <v/>
@@ -945,13 +951,13 @@
         <v/>
       </c>
       <c r="B33" t="str">
-        <v>독어독문학과</v>
+        <v>지능형전자시스템전공</v>
       </c>
       <c r="C33" t="str">
         <v/>
       </c>
       <c r="D33" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" t="str">
         <v/>
@@ -962,13 +968,13 @@
         <v/>
       </c>
       <c r="B34" t="str">
-        <v>사학과</v>
+        <v>신소재물리전공</v>
       </c>
       <c r="C34" t="str">
         <v/>
       </c>
       <c r="D34" t="str">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E34" t="str">
         <v/>
@@ -979,13 +985,13 @@
         <v/>
       </c>
       <c r="B35" t="str">
-        <v>철학과</v>
+        <v>컴퓨터과학전공</v>
       </c>
       <c r="C35" t="str">
         <v/>
       </c>
       <c r="D35" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E35" t="str">
         <v/>
@@ -996,13 +1002,13 @@
         <v/>
       </c>
       <c r="B36" t="str">
-        <v>정치외교학과</v>
+        <v>데이터사이언스전공</v>
       </c>
       <c r="C36" t="str">
         <v/>
       </c>
       <c r="D36" t="str">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E36" t="str">
         <v/>
@@ -1013,13 +1019,13 @@
         <v/>
       </c>
       <c r="B37" t="str">
-        <v>사회학과</v>
+        <v>기계시스템학부</v>
       </c>
       <c r="C37" t="str">
         <v/>
       </c>
       <c r="D37" t="str">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E37" t="str">
         <v/>
@@ -1030,13 +1036,13 @@
         <v/>
       </c>
       <c r="B38" t="str">
-        <v>미디어커뮤니케이션학과</v>
+        <v>기초공학부</v>
       </c>
       <c r="C38" t="str">
         <v/>
       </c>
       <c r="D38" t="str">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E38" t="str">
         <v/>
@@ -1047,13 +1053,13 @@
         <v/>
       </c>
       <c r="B39" t="str">
-        <v>관광학부</v>
+        <v>의류학과</v>
       </c>
       <c r="C39" t="str">
         <v/>
       </c>
       <c r="D39" t="str">
-        <v>6</v>
+        <v/>
       </c>
       <c r="E39" t="str">
         <v/>
@@ -1064,13 +1070,13 @@
         <v/>
       </c>
       <c r="B40" t="str">
-        <v>정책학과</v>
+        <v>식품영양학과</v>
       </c>
       <c r="C40" t="str">
         <v/>
       </c>
       <c r="D40" t="str">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E40" t="str">
         <v/>
@@ -1081,16 +1087,16 @@
         <v/>
       </c>
       <c r="B41" t="str">
-        <v>행정학과</v>
+        <v>무용과-한국무용</v>
       </c>
       <c r="C41" t="str">
-        <v/>
+        <v>3</v>
       </c>
       <c r="D41" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E41" t="str">
-        <v/>
+        <v>3.33: 1</v>
       </c>
     </row>
     <row r="42">
@@ -1098,13 +1104,13 @@
         <v/>
       </c>
       <c r="B42" t="str">
-        <v>경제금융학부</v>
+        <v>무용과-발레</v>
       </c>
       <c r="C42" t="str">
         <v/>
       </c>
       <c r="D42" t="str">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E42" t="str">
         <v/>
@@ -1115,13 +1121,13 @@
         <v/>
       </c>
       <c r="B43" t="str">
-        <v>경영학부</v>
+        <v>무용과-현대무용</v>
       </c>
       <c r="C43" t="str">
         <v/>
       </c>
       <c r="D43" t="str">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="E43" t="str">
         <v/>
@@ -1132,13 +1138,13 @@
         <v/>
       </c>
       <c r="B44" t="str">
-        <v>파이낸스경영학과</v>
+        <v>피아노과</v>
       </c>
       <c r="C44" t="str">
         <v/>
       </c>
       <c r="D44" t="str">
-        <v>14</v>
+        <v/>
       </c>
       <c r="E44" t="str">
         <v/>
@@ -1149,13 +1155,13 @@
         <v/>
       </c>
       <c r="B45" t="str">
-        <v>스포츠매니지먼트전공</v>
+        <v>관현악과</v>
       </c>
       <c r="C45" t="str">
         <v/>
       </c>
       <c r="D45" t="str">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E45" t="str">
         <v/>
@@ -1166,13 +1172,13 @@
         <v/>
       </c>
       <c r="B46" t="str">
-        <v>연극영화학과(영화전공)</v>
+        <v>성악과</v>
       </c>
       <c r="C46" t="str">
         <v/>
       </c>
       <c r="D46" t="str">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E46" t="str">
         <v/>
@@ -1183,18 +1189,1256 @@
         <v/>
       </c>
       <c r="B47" t="str">
-        <v>국제학전공</v>
+        <v>작곡과</v>
       </c>
       <c r="C47" t="str">
+        <v/>
+      </c>
+      <c r="D47" t="str">
+        <v>0</v>
+      </c>
+      <c r="E47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v/>
+      </c>
+      <c r="B48" t="str">
+        <v>시각·영상디자인과</v>
+      </c>
+      <c r="C48" t="str">
+        <v/>
+      </c>
+      <c r="D48" t="str">
+        <v/>
+      </c>
+      <c r="E48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v/>
+      </c>
+      <c r="B49" t="str">
+        <v>산업디자인과</v>
+      </c>
+      <c r="C49" t="str">
+        <v/>
+      </c>
+      <c r="D49" t="str">
+        <v>0</v>
+      </c>
+      <c r="E49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v/>
+      </c>
+      <c r="B50" t="str">
+        <v>환경디자인과</v>
+      </c>
+      <c r="C50" t="str">
+        <v/>
+      </c>
+      <c r="D50" t="str">
+        <v>1</v>
+      </c>
+      <c r="E50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v/>
+      </c>
+      <c r="B51" t="str">
+        <v>공예과</v>
+      </c>
+      <c r="C51" t="str">
+        <v/>
+      </c>
+      <c r="D51" t="str">
+        <v>2</v>
+      </c>
+      <c r="E51" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v/>
+      </c>
+      <c r="B52" t="str">
+        <v>회화과-한국화</v>
+      </c>
+      <c r="C52" t="str">
+        <v/>
+      </c>
+      <c r="D52" t="str">
+        <v>0</v>
+      </c>
+      <c r="E52" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v/>
+      </c>
+      <c r="B53" t="str">
+        <v>회화과-서양화</v>
+      </c>
+      <c r="C53" t="str">
+        <v/>
+      </c>
+      <c r="D53" t="str">
+        <v>0</v>
+      </c>
+      <c r="E53" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v/>
+      </c>
+      <c r="B54" t="str">
+        <v>문과대학</v>
+      </c>
+      <c r="D54" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v/>
+      </c>
+      <c r="B55" t="str">
+        <v>역사문화학과</v>
+      </c>
+      <c r="D55" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v/>
+      </c>
+      <c r="B56" t="str">
+        <v>프랑스언어·문화학과</v>
+      </c>
+      <c r="D56" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v/>
+      </c>
+      <c r="B57" t="str">
+        <v>중어중문학부</v>
+      </c>
+      <c r="D57" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v/>
+      </c>
+      <c r="B58" t="str">
+        <v>독일언어·문화학과</v>
+      </c>
+      <c r="D58" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v/>
+      </c>
+      <c r="B59" t="str">
+        <v>일본학과</v>
+      </c>
+      <c r="D59" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v/>
+      </c>
+      <c r="B60" t="str">
+        <v>문헌정보학과</v>
+      </c>
+      <c r="D60" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v/>
+      </c>
+      <c r="B61" t="str">
+        <v>문화관광학전공</v>
+      </c>
+      <c r="D61" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v/>
+      </c>
+      <c r="B62" t="str">
+        <v>르꼬르동블루외식경영전공</v>
+      </c>
+      <c r="D62" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v/>
+      </c>
+      <c r="B63" t="str">
+        <v>생활과학대학</v>
+      </c>
+      <c r="D63" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v/>
+      </c>
+      <c r="B64" t="str">
+        <v>아동복지학부</v>
+      </c>
+      <c r="D64" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v/>
+      </c>
+      <c r="B65" t="str">
+        <v>사회과학대학</v>
+      </c>
+      <c r="D65" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v/>
+      </c>
+      <c r="B66" t="str">
+        <v>행정학과</v>
+      </c>
+      <c r="D66" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v/>
+      </c>
+      <c r="B67" t="str">
+        <v>홍보광고학과</v>
+      </c>
+      <c r="D67" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v/>
+      </c>
+      <c r="B68" t="str">
+        <v>소비자경제학과</v>
+      </c>
+      <c r="D68" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v/>
+      </c>
+      <c r="B69" t="str">
+        <v>사회심리학과</v>
+      </c>
+      <c r="D69" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v/>
+      </c>
+      <c r="B70" t="str">
+        <v>법과대학</v>
+      </c>
+      <c r="D70" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v/>
+      </c>
+      <c r="B71" t="str">
+        <v>경상대학</v>
+      </c>
+      <c r="D71" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v/>
+      </c>
+      <c r="B72" t="str">
+        <v>경영학부</v>
+      </c>
+      <c r="D72" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v/>
+      </c>
+      <c r="B73" t="str">
+        <v>글로벌서비스학부</v>
+      </c>
+      <c r="D73" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v/>
+      </c>
+      <c r="B74" t="str">
+        <v>앙트러프러너십전공</v>
+      </c>
+      <c r="D74" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v/>
+      </c>
+      <c r="B75" t="str">
+        <v>영어영문학부</v>
+      </c>
+      <c r="D75" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v/>
+      </c>
+      <c r="B76" t="str">
+        <v>테슬(TESL)전공</v>
+      </c>
+      <c r="D76" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v/>
+      </c>
+      <c r="B77" t="str">
+        <v>미디어학부</v>
+      </c>
+      <c r="D77" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v/>
+      </c>
+      <c r="B78" t="str">
+        <v>이과대학</v>
+      </c>
+      <c r="D78" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v/>
+      </c>
+      <c r="B79" t="str">
+        <v>생명시스템학부</v>
+      </c>
+      <c r="D79" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v/>
+      </c>
+      <c r="B80" t="str">
+        <v>수학과</v>
+      </c>
+      <c r="D80" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v/>
+      </c>
+      <c r="B81" t="str">
+        <v>통계학과</v>
+      </c>
+      <c r="D81" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v/>
+      </c>
+      <c r="B82" t="str">
+        <v>공과대학</v>
+      </c>
+      <c r="D82" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v/>
+      </c>
+      <c r="B83" t="str">
+        <v>인공지능공학부</v>
+      </c>
+      <c r="D83" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v/>
+      </c>
+      <c r="B84" t="str">
+        <v>지능형전자시스템전공</v>
+      </c>
+      <c r="D84" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v/>
+      </c>
+      <c r="B85" t="str">
+        <v>신소재물리전공</v>
+      </c>
+      <c r="D85" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v/>
+      </c>
+      <c r="B86" t="str">
+        <v>컴퓨터과학전공</v>
+      </c>
+      <c r="D86" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v/>
+      </c>
+      <c r="B87" t="str">
+        <v>데이터사이언스전공</v>
+      </c>
+      <c r="D87" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v/>
+      </c>
+      <c r="B88" t="str">
+        <v>기계시스템학부</v>
+      </c>
+      <c r="D88" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v/>
+      </c>
+      <c r="B89" t="str">
+        <v>기초공학부</v>
+      </c>
+      <c r="D89" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v/>
+      </c>
+      <c r="B90" t="str">
+        <v>생활과학대학</v>
+      </c>
+      <c r="D90" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v/>
+      </c>
+      <c r="B91" t="str">
+        <v>식품영양학과</v>
+      </c>
+      <c r="D91" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v/>
+      </c>
+      <c r="B92" t="str">
+        <v>이과대학</v>
+      </c>
+      <c r="D92" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v/>
+      </c>
+      <c r="B93" t="str">
+        <v>무용과-발레</v>
+      </c>
+      <c r="D93" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v/>
+      </c>
+      <c r="B94" t="str">
+        <v>무용과-현대무용</v>
+      </c>
+      <c r="D94" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v/>
+      </c>
+      <c r="B95" t="str">
+        <v>음악대학</v>
+      </c>
+      <c r="D95" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v/>
+      </c>
+      <c r="B96" t="str">
+        <v>관현악과</v>
+      </c>
+      <c r="D96" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v/>
+      </c>
+      <c r="B97" t="str">
+        <v>성악과</v>
+      </c>
+      <c r="D97" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v/>
+      </c>
+      <c r="B98" t="str">
+        <v>작곡과</v>
+      </c>
+      <c r="D98" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v/>
+      </c>
+      <c r="B99" t="str">
+        <v>미술대학</v>
+      </c>
+      <c r="D99" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v/>
+      </c>
+      <c r="B100" t="str">
+        <v>산업디자인과</v>
+      </c>
+      <c r="D100" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v/>
+      </c>
+      <c r="B101" t="str">
+        <v>환경디자인과</v>
+      </c>
+      <c r="D101" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v/>
+      </c>
+      <c r="B102" t="str">
+        <v>공예과</v>
+      </c>
+      <c r="D102" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v/>
+      </c>
+      <c r="B103" t="str">
+        <v>회화과-한국화</v>
+      </c>
+      <c r="D103" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v/>
+      </c>
+      <c r="B104" t="str">
+        <v>회화과-서양화</v>
+      </c>
+      <c r="D104" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v/>
+      </c>
+      <c r="B105" t="str">
+        <v>문과대학</v>
+      </c>
+      <c r="D105" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v/>
+      </c>
+      <c r="B106" t="str">
+        <v>역사문화학과</v>
+      </c>
+      <c r="D106" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v/>
+      </c>
+      <c r="B107" t="str">
+        <v>프랑스언어·문화학과</v>
+      </c>
+      <c r="D107" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v/>
+      </c>
+      <c r="B108" t="str">
+        <v>중어중문학부</v>
+      </c>
+      <c r="D108" t="str">
         <v>3</v>
       </c>
-      <c r="D47" t="str">
-        <v>20</v>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v/>
+      </c>
+      <c r="B109" t="str">
+        <v>독일언어·문화학과</v>
+      </c>
+      <c r="D109" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v/>
+      </c>
+      <c r="B110" t="str">
+        <v>일본학과</v>
+      </c>
+      <c r="D110" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v/>
+      </c>
+      <c r="B111" t="str">
+        <v>문헌정보학과</v>
+      </c>
+      <c r="D111" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v/>
+      </c>
+      <c r="B112" t="str">
+        <v>문화관광학전공</v>
+      </c>
+      <c r="D112" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v/>
+      </c>
+      <c r="B113" t="str">
+        <v>르꼬르동블루외식경영전공</v>
+      </c>
+      <c r="D113" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v/>
+      </c>
+      <c r="B114" t="str">
+        <v>생활과학대학</v>
+      </c>
+      <c r="D114" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v/>
+      </c>
+      <c r="B115" t="str">
+        <v>아동복지학부</v>
+      </c>
+      <c r="D115" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v/>
+      </c>
+      <c r="B116" t="str">
+        <v>사회과학대학</v>
+      </c>
+      <c r="D116" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v/>
+      </c>
+      <c r="B117" t="str">
+        <v>행정학과</v>
+      </c>
+      <c r="D117" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v/>
+      </c>
+      <c r="B118" t="str">
+        <v>홍보광고학과</v>
+      </c>
+      <c r="D118" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v/>
+      </c>
+      <c r="B119" t="str">
+        <v>소비자경제학과</v>
+      </c>
+      <c r="D119" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v/>
+      </c>
+      <c r="B120" t="str">
+        <v>사회심리학과</v>
+      </c>
+      <c r="D120" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v/>
+      </c>
+      <c r="B121" t="str">
+        <v>법과대학</v>
+      </c>
+      <c r="D121" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v/>
+      </c>
+      <c r="B122" t="str">
+        <v>경상대학</v>
+      </c>
+      <c r="D122" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v/>
+      </c>
+      <c r="B123" t="str">
+        <v>경영학부</v>
+      </c>
+      <c r="D123" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v/>
+      </c>
+      <c r="B124" t="str">
+        <v>글로벌서비스학부</v>
+      </c>
+      <c r="D124" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v/>
+      </c>
+      <c r="B125" t="str">
+        <v>앙트러프러너십전공</v>
+      </c>
+      <c r="D125" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v/>
+      </c>
+      <c r="B126" t="str">
+        <v>영어영문학부</v>
+      </c>
+      <c r="D126" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v/>
+      </c>
+      <c r="B127" t="str">
+        <v>테슬(TESL)전공</v>
+      </c>
+      <c r="D127" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v/>
+      </c>
+      <c r="B128" t="str">
+        <v>미디어학부</v>
+      </c>
+      <c r="D128" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v/>
+      </c>
+      <c r="B129" t="str">
+        <v>이과대학</v>
+      </c>
+      <c r="D129" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v/>
+      </c>
+      <c r="B130" t="str">
+        <v>생명시스템학부</v>
+      </c>
+      <c r="D130" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v/>
+      </c>
+      <c r="B131" t="str">
+        <v>수학과</v>
+      </c>
+      <c r="D131" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v/>
+      </c>
+      <c r="B132" t="str">
+        <v>통계학과</v>
+      </c>
+      <c r="D132" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v/>
+      </c>
+      <c r="B133" t="str">
+        <v>공과대학</v>
+      </c>
+      <c r="D133" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v/>
+      </c>
+      <c r="B134" t="str">
+        <v>인공지능공학부</v>
+      </c>
+      <c r="D134" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v/>
+      </c>
+      <c r="B135" t="str">
+        <v>지능형전자시스템전공</v>
+      </c>
+      <c r="D135" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v/>
+      </c>
+      <c r="B136" t="str">
+        <v>신소재물리전공</v>
+      </c>
+      <c r="D136" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v/>
+      </c>
+      <c r="B137" t="str">
+        <v>컴퓨터과학전공</v>
+      </c>
+      <c r="D137" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v/>
+      </c>
+      <c r="B138" t="str">
+        <v>데이터사이언스전공</v>
+      </c>
+      <c r="D138" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v/>
+      </c>
+      <c r="B139" t="str">
+        <v>기계시스템학부</v>
+      </c>
+      <c r="D139" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v/>
+      </c>
+      <c r="B140" t="str">
+        <v>기초공학부</v>
+      </c>
+      <c r="D140" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v/>
+      </c>
+      <c r="B141" t="str">
+        <v>생활과학대학</v>
+      </c>
+      <c r="D141" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v/>
+      </c>
+      <c r="B142" t="str">
+        <v>식품영양학과</v>
+      </c>
+      <c r="D142" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v/>
+      </c>
+      <c r="B143" t="str">
+        <v>약학대학</v>
+      </c>
+      <c r="D143" t="str">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v/>
+      </c>
+      <c r="B144" t="str">
+        <v>이과대학</v>
+      </c>
+      <c r="D144" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v/>
+      </c>
+      <c r="B145" t="str">
+        <v>무용과-발레</v>
+      </c>
+      <c r="D145" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v/>
+      </c>
+      <c r="B146" t="str">
+        <v>무용과-현대무용</v>
+      </c>
+      <c r="D146" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v/>
+      </c>
+      <c r="B147" t="str">
+        <v>음악대학</v>
+      </c>
+      <c r="D147" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v/>
+      </c>
+      <c r="B148" t="str">
+        <v>관현악과</v>
+      </c>
+      <c r="D148" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v/>
+      </c>
+      <c r="B149" t="str">
+        <v>성악과</v>
+      </c>
+      <c r="D149" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v/>
+      </c>
+      <c r="B150" t="str">
+        <v>작곡과</v>
+      </c>
+      <c r="D150" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v/>
+      </c>
+      <c r="B151" t="str">
+        <v>미술대학</v>
+      </c>
+      <c r="D151" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v/>
+      </c>
+      <c r="B152" t="str">
+        <v>산업디자인과</v>
+      </c>
+      <c r="D152" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v/>
+      </c>
+      <c r="B153" t="str">
+        <v>환경디자인과</v>
+      </c>
+      <c r="D153" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v/>
+      </c>
+      <c r="B154" t="str">
+        <v>공예과</v>
+      </c>
+      <c r="D154" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v/>
+      </c>
+      <c r="B155" t="str">
+        <v>회화과-한국화</v>
+      </c>
+      <c r="D155" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v/>
+      </c>
+      <c r="B156" t="str">
+        <v>회화과-서양화</v>
+      </c>
+      <c r="D156" t="str">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E47"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E156"/>
   </ignoredErrors>
 </worksheet>
 </file>